--- a/Board/UB_GD32F303CGT6/Documents/GD32F303CGT6.xlsx
+++ b/Board/UB_GD32F303CGT6/Documents/GD32F303CGT6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="8955"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Flash_SRAM" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Flash</t>
   </si>
@@ -64,6 +64,12 @@
   <si>
     <t>SRAM</t>
   </si>
+  <si>
+    <t>Backup</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
 </sst>
 </file>
 
@@ -235,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,7 +262,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +274,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,7 +636,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,16 +660,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -648,25 +678,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,8 +747,20 @@
     <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,6 +783,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1280,13 +1322,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="6.375" style="1" customWidth="1"/>
     <col min="2" max="3" width="9.375" style="1" customWidth="1"/>
@@ -1371,12 +1413,11 @@
         <v>10</v>
       </c>
       <c r="F3" s="7">
-        <f>C1-F2</f>
-        <v>192</v>
-      </c>
-      <c r="G3" s="5" t="str">
+        <v>64</v>
+      </c>
+      <c r="G3" s="7" t="str">
         <f>"0x"&amp;DEC2HEX(F3*1024,8)</f>
-        <v>0x00030000</v>
+        <v>0x00010000</v>
       </c>
       <c r="H3" s="7" t="str">
         <f>"0x"&amp;DEC2HEX(HEX2DEC(MID(I2,3,8))+1,8)</f>
@@ -1384,20 +1425,58 @@
       </c>
       <c r="I3" s="7" t="str">
         <f>"0x"&amp;DEC2HEX(HEX2DEC(MID(H3,3,8))+F3*1024-1,8)</f>
-        <v>0x0803FFFF</v>
+        <v>0x0801FFFF</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1"/>
       <c r="C4" s="1">
         <v>96</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>"0x"&amp;DEC2HEX(C4*1024,8)</f>
         <v>0x00018000</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9">
+        <v>64</v>
+      </c>
+      <c r="G4" s="9" t="str">
+        <f>"0x"&amp;DEC2HEX(F4*1024,8)</f>
+        <v>0x00010000</v>
+      </c>
+      <c r="H4" s="9" t="str">
+        <f>"0x"&amp;DEC2HEX(HEX2DEC(MID(I3,3,8))+1,8)</f>
+        <v>0x08020000</v>
+      </c>
+      <c r="I4" s="9" t="str">
+        <f>"0x"&amp;DEC2HEX(HEX2DEC(MID(H4,3,8))+F4*1024-1,8)</f>
+        <v>0x0802FFFF</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9">
+      <c r="E5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11">
+        <f>C1-SUM(F2:F4)</f>
+        <v>64</v>
+      </c>
+      <c r="G5" s="11" t="str">
+        <f>"0x"&amp;DEC2HEX(F5*1024,8)</f>
+        <v>0x00010000</v>
+      </c>
+      <c r="H5" s="11" t="str">
+        <f>"0x"&amp;DEC2HEX(HEX2DEC(MID(I4,3,8))+1,8)</f>
+        <v>0x08030000</v>
+      </c>
+      <c r="I5" s="11" t="str">
+        <f>"0x"&amp;DEC2HEX(HEX2DEC(MID(H5,3,8))+F5*1024-1,8)</f>
+        <v>0x0803FFFF</v>
       </c>
     </row>
   </sheetData>
